--- a/statements.xlsx
+++ b/statements.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="256">
   <si>
     <t xml:space="preserve"> Виписка з Ваших карток за період 01.01.2020 - 01.04.2020</t>
   </si>
@@ -792,6 +792,12 @@
   </si>
   <si>
     <t>1784-6472-3952-3279</t>
+  </si>
+  <si>
+    <t>Профицит "+" / Дефицит "-"</t>
+  </si>
+  <si>
+    <t>Текущее</t>
   </si>
 </sst>
 </file>
@@ -832,7 +838,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,6 +854,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -911,6 +935,9 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="172" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -973,11 +1000,45 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5749,33 +5810,32 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="89" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1">
-  <location ref="A3:F14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="89" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1">
+  <location ref="A4:F14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisPage" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1">
-      <items count="14">
-        <item h="1" m="1" x="8"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0">
+      <items count="13">
+        <item m="1" x="8"/>
         <item x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" x="4"/>
-        <item h="1" m="1" x="11"/>
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item x="4"/>
+        <item m="1" x="11"/>
         <item x="6"/>
         <item x="2"/>
-        <item h="1" m="1" x="12"/>
+        <item m="1" x="12"/>
         <item m="1" x="10"/>
         <item x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
+        <item x="5"/>
+        <item x="7"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" sortType="ascending">
-      <items count="17">
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" sortType="ascending" defaultSubtotal="0">
+      <items count="16">
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -5792,19 +5852,18 @@
         <item x="0"/>
         <item x="1"/>
         <item x="14"/>
-        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -5831,9 +5890,6 @@
     </i>
     <i>
       <x v="14"/>
-    </i>
-    <i t="grand">
-      <x/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -10037,8 +10093,8 @@
   <dimension ref="A1:K186"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K73" sqref="K73"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10057,3838 +10113,3838 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="29" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="30" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="30" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="13">
         <v>217.41</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="15">
         <v>3869</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="15">
         <v>3935</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="15">
         <f>H4-G4</f>
         <v>66</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="16">
         <f>K4/I4</f>
         <v>6.9003030303030304</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="13">
         <v>455.42</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="13">
         <v>1406.84</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="15">
         <v>952</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="15">
         <v>973</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="15">
         <f t="shared" ref="I6:I69" si="0">H6-G6</f>
         <v>21</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="16">
         <f t="shared" ref="J6:J69" si="1">K6/I6</f>
         <v>22.97</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="13">
         <v>482.37</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="15">
         <v>17599</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="15">
         <v>17699</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="16">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="13">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="15">
         <v>17699</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="15">
         <v>17755</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="15">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="16">
         <f t="shared" si="1"/>
         <v>1.68</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="13">
         <v>94.08</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="13">
         <v>295.32</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="13">
         <v>1351.46</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="15">
         <v>17755</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="15">
         <v>17855</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="16">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="13">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="15">
         <v>17855</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="15">
         <v>17907</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="15">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="16">
         <f t="shared" si="1"/>
         <v>1.68</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="13">
         <v>87.36</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="15">
         <v>3935</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="15">
         <v>4005</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="16">
         <f t="shared" si="1"/>
         <v>6.1348571428571432</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="13">
         <v>429.44</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="15">
         <v>973</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="15">
         <v>993</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="16">
         <f t="shared" si="1"/>
         <v>22.968</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="13">
         <v>459.36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="A15" s="23">
         <v>43881</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="13">
         <v>292.44</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+      <c r="A16" s="23">
         <v>43881</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="13">
         <v>1538.84</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>43881</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="15">
         <v>17907</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="15">
         <v>18007</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="16">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="13">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
+      <c r="A18" s="23">
         <v>43881</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="15">
         <v>18007</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="15">
         <v>18028</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="16">
         <f t="shared" si="1"/>
         <v>1.6800000000000002</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="13">
         <v>35.28</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="22">
+      <c r="A19" s="23">
         <v>43881</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="15">
         <v>4005</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="15">
         <v>4075</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="16">
         <f t="shared" si="1"/>
         <v>5.8684285714285718</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="13">
         <v>410.79</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>43881</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="15">
         <v>993</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="15">
         <v>1016</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="16">
         <f t="shared" si="1"/>
         <v>22.967826086956521</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="13">
         <v>528.26</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
+      <c r="A21" s="23">
         <v>43928</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="24">
         <v>0.7055555555555556</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="13">
         <v>217.41</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>43928</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="24">
         <v>0.7055555555555556</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="13">
         <v>1422.76</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
+      <c r="A23" s="23">
         <v>43928</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="24">
         <v>0.7055555555555556</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="13">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>43928</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="24">
         <v>0.7055555555555556</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="25">
         <v>4075</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="25">
         <v>4150</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="15">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="16">
         <f t="shared" si="1"/>
         <v>5.005066666666667</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="13">
         <v>375.38</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="22">
+      <c r="A25" s="23">
         <v>43928</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="24">
         <v>0.7055555555555556</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="15">
         <v>18028</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="15">
         <v>18128</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="16">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="13">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
+      <c r="A26" s="23">
         <v>43928</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="24">
         <v>0.7055555555555556</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="15">
         <v>18128</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="15">
         <v>18178</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="16">
         <f t="shared" si="1"/>
         <v>1.68</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="13">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>43928</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="24">
         <v>0.7055555555555556</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="15">
         <v>1016</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="15">
         <v>1043</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="16">
         <f t="shared" si="1"/>
         <v>22.968148148148149</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="13">
         <v>620.14</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="22">
+      <c r="A28" s="23">
         <v>43966</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="24">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="13">
         <v>217.41</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>43966</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="24">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="15">
         <v>1069</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="15">
         <v>1095</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="16">
         <f t="shared" si="1"/>
         <v>22.596153846153847</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="13">
         <v>587.5</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="22">
+      <c r="A30" s="23">
         <v>43966</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="24">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="13">
         <v>15.45</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>43966</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="24">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="13">
         <v>64.319999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="22">
+      <c r="A32" s="23">
         <v>43966</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="24">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="15">
         <v>18373</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="15">
         <v>18473</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="16">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="13">
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="22">
+      <c r="A33" s="23">
         <v>43966</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="24">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="15">
         <v>18473</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="15">
         <v>18567</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="15">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="16">
         <f t="shared" si="1"/>
         <v>1.68</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="13">
         <v>157.91999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
+      <c r="A34" s="23">
         <v>43966</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="24">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="15">
         <v>4200</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="15">
         <v>4321</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="15">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="16">
         <f t="shared" si="1"/>
         <v>3.712314049586777</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="13">
         <v>449.19</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="22">
+      <c r="A35" s="23">
         <v>43966</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="24">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="13">
         <v>1025.06</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="22">
+      <c r="A36" s="23">
         <v>43966</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="24">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J36" s="25" t="s">
+      <c r="J36" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="13">
         <v>15.45</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="22">
+      <c r="A37" s="23">
         <v>43966</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="24">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J37" s="25" t="s">
+      <c r="J37" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37" s="13">
         <v>64.319999999999993</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="22">
+      <c r="A38" s="23">
         <v>43966</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="24">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="15">
         <v>4150</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="15">
         <v>4200</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="16">
         <f t="shared" si="1"/>
         <v>4.3260000000000005</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="13">
         <v>216.3</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="22">
+      <c r="A39" s="23">
         <v>43966</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="24">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="15">
         <v>18178</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="15">
         <v>18278</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J39" s="16">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="13">
         <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="22">
+      <c r="A40" s="23">
         <v>43966</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="24">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="15">
         <v>18278</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="15">
         <v>18373</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="15">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="16">
         <f t="shared" si="1"/>
         <v>1.68</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="13">
         <v>159.6</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="22">
+    <row r="41" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="23">
         <v>43966</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="24">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="15">
         <v>1043</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="15">
         <v>1069</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="16">
         <f t="shared" si="1"/>
         <v>22.596153846153847</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="13">
         <v>587.5</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22">
+    <row r="42" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="23">
         <v>43966</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="24">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H42" s="24" t="s">
+      <c r="H42" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J42" s="25" t="s">
+      <c r="J42" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42" s="13">
         <v>217.41</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22">
+    <row r="43" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="23">
         <v>44019</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="24">
         <v>0.57777777777777783</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J43" s="25" t="s">
+      <c r="J43" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K43" s="13">
         <v>217.41</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22">
+    <row r="44" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="23">
         <v>44019</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="24">
         <v>0.57777777777777783</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="15">
         <v>1095</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="15">
         <v>1113</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="15">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="16">
         <f t="shared" si="1"/>
         <v>22.96777777777778</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K44" s="13">
         <v>413.42</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="22">
+    <row r="45" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="23">
         <v>44019</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="24">
         <v>0.57777777777777783</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J45" s="25" t="s">
+      <c r="J45" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="13">
         <v>15.45</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22">
+    <row r="46" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="23">
         <v>44019</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="24">
         <v>0.57777777777777783</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H46" s="24" t="s">
+      <c r="H46" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="I46" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J46" s="25" t="s">
+      <c r="J46" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K46" s="13">
         <v>64.319999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="22">
+    <row r="47" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="23">
         <v>44019</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="24">
         <v>0.57777777777777783</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="15">
         <v>4321</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="15">
         <v>4364</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="15">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="16">
         <f t="shared" si="1"/>
         <v>2.9481395348837207</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="13">
         <v>126.77</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22">
+    <row r="48" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23">
         <v>44019</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="24">
         <v>0.57777777777777783</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="15">
         <v>18567</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="15">
         <v>18667</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J48" s="16">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K48" s="13">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22">
+    <row r="49" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23">
         <v>44019</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="24">
         <v>0.57777777777777783</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="15">
         <v>18667</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="15">
         <v>18708</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="16">
         <f t="shared" si="1"/>
         <v>1.68</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K49" s="13">
         <v>68.88</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22">
+    <row r="50" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23">
         <v>44051</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="24">
         <v>0.82638888888888884</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G50" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H50" s="24" t="s">
+      <c r="H50" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="I50" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J50" s="25" t="s">
+      <c r="J50" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K50" s="13">
         <v>217.41</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22">
+    <row r="51" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23">
         <v>44051</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="24">
         <v>0.82638888888888884</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="15">
         <v>1113</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="15">
         <v>1143</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J51" s="16">
         <f t="shared" si="1"/>
         <v>22.966666666666665</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="10">
         <v>689</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22">
+    <row r="52" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="23">
         <v>44051</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="24">
         <v>0.82638888888888884</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="H52" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="I52" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J52" s="25" t="s">
+      <c r="J52" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K52" s="13">
         <v>15.45</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="22">
+    <row r="53" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="23">
         <v>44051</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="24">
         <v>0.82638888888888884</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="H53" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="I53" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J53" s="25" t="s">
+      <c r="J53" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K53" s="13">
         <v>73.790000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="22">
+    <row r="54" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23">
         <v>44051</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="24">
         <v>0.82638888888888884</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="15">
         <v>18708</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="15">
         <v>18808</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="16">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="10">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="22">
+    <row r="55" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="23">
         <v>44051</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="24">
         <v>0.82638888888888884</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="15">
         <v>18808</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="15">
         <v>18892</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55" s="15">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="16">
         <f t="shared" si="1"/>
         <v>1.6785714285714286</v>
       </c>
-      <c r="K55" s="9">
+      <c r="K55" s="10">
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="22">
+    <row r="56" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="23">
         <v>44051</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B56" s="24">
         <v>0.82638888888888884</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="15">
         <v>4364</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="15">
         <v>4453</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I56" s="15">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J56" s="16">
         <f t="shared" si="1"/>
         <v>2.7865168539325844</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K56" s="10">
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="22">
+    <row r="57" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="23">
         <v>44051</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B57" s="24">
         <v>0.82638888888888884</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="G57" s="24" t="s">
+      <c r="G57" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H57" s="24" t="s">
+      <c r="H57" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I57" s="24" t="s">
+      <c r="I57" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J57" s="25" t="s">
+      <c r="J57" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57" s="10">
         <v>594</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="22">
+    <row r="58" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="23">
         <v>44130</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="24">
         <v>0.49236111111111108</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G58" s="24" t="s">
+      <c r="G58" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H58" s="24" t="s">
+      <c r="H58" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I58" s="24" t="s">
+      <c r="I58" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J58" s="25" t="s">
+      <c r="J58" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K58" s="10">
         <v>217.41</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="22">
+    <row r="59" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="23">
         <v>44130</v>
       </c>
-      <c r="B59" s="23">
+      <c r="B59" s="24">
         <v>0.49236111111111108</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="15">
         <v>1143</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="15">
         <v>1173</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J59" s="16">
         <f t="shared" si="1"/>
         <v>23.238</v>
       </c>
-      <c r="K59" s="9">
+      <c r="K59" s="10">
         <v>697.14</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="22">
+    <row r="60" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="23">
         <v>44130</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="24">
         <v>0.49236111111111108</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G60" s="24" t="s">
+      <c r="G60" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H60" s="24" t="s">
+      <c r="H60" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I60" s="24" t="s">
+      <c r="I60" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J60" s="25" t="s">
+      <c r="J60" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K60" s="13">
         <v>73.790000000000006</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="22">
+    <row r="61" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="23">
         <v>44130</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="24">
         <v>0.49236111111111108</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="15">
         <v>18892</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="15">
         <v>18992</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J61" s="16">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61" s="10">
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="22">
+    <row r="62" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="23">
         <v>44130</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="24">
         <v>0.49236111111111108</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="15">
         <v>18992</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="15">
         <v>19092</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I62" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J62" s="16">
         <f t="shared" si="1"/>
         <v>1.68</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K62" s="10">
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="22">
+    <row r="63" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="23">
         <v>44130</v>
       </c>
-      <c r="B63" s="23">
+      <c r="B63" s="24">
         <v>0.49236111111111108</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="15">
         <v>4453</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="15">
         <v>4501</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I63" s="15">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J63" s="16">
         <f t="shared" si="1"/>
         <v>5.45</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K63" s="10">
         <v>261.60000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="22">
+    <row r="64" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="23">
         <v>44146</v>
       </c>
-      <c r="B64" s="23">
+      <c r="B64" s="24">
         <v>0.42499999999999999</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G64" s="24" t="s">
+      <c r="G64" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H64" s="24" t="s">
+      <c r="H64" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I64" s="24" t="s">
+      <c r="I64" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J64" s="25" t="s">
+      <c r="J64" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K64" s="10">
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="22">
+    <row r="65" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="23">
         <v>44146</v>
       </c>
-      <c r="B65" s="23">
+      <c r="B65" s="24">
         <v>0.42499999999999999</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="G65" s="24" t="s">
+      <c r="G65" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H65" s="24" t="s">
+      <c r="H65" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I65" s="24" t="s">
+      <c r="I65" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J65" s="25" t="s">
+      <c r="J65" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K65" s="9">
+      <c r="K65" s="10">
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="22">
+    <row r="66" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="23">
         <v>44146</v>
       </c>
-      <c r="B66" s="23">
+      <c r="B66" s="24">
         <v>0.42499999999999999</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="G66" s="24" t="s">
+      <c r="G66" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H66" s="24" t="s">
+      <c r="H66" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I66" s="24" t="s">
+      <c r="I66" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J66" s="25" t="s">
+      <c r="J66" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K66" s="9">
+      <c r="K66" s="10">
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="22">
+    <row r="67" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="23">
         <v>43779</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="24">
         <v>0.56319444444444444</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="15">
         <v>929</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="15">
         <v>952</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I67" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="J67" s="15">
+      <c r="J67" s="16">
         <f t="shared" si="1"/>
         <v>22.967826086956521</v>
       </c>
-      <c r="K67" s="9">
+      <c r="K67" s="10">
         <v>528.26</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="22">
+    <row r="68" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="23">
         <v>43779</v>
       </c>
-      <c r="B68" s="23">
+      <c r="B68" s="24">
         <v>0.56319444444444444</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="15">
         <v>17389</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="15">
         <v>17489</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I68" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J68" s="16">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="K68" s="9">
+      <c r="K68" s="10">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="22">
+    <row r="69" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="23">
         <v>43779</v>
       </c>
-      <c r="B69" s="23">
+      <c r="B69" s="24">
         <v>0.56319444444444444</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="15">
         <v>17489</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="15">
         <v>17599</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I69" s="15">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="J69" s="15">
+      <c r="J69" s="16">
         <f t="shared" si="1"/>
         <v>1.6800000000000002</v>
       </c>
-      <c r="K69" s="9">
+      <c r="K69" s="10">
         <v>184.8</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="22">
+    <row r="70" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="23">
         <v>43779</v>
       </c>
-      <c r="B70" s="23">
+      <c r="B70" s="24">
         <v>0.56319444444444444</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F70" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="15">
         <v>3809</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="15">
         <v>3869</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I70" s="15">
         <f t="shared" ref="I70:I133" si="2">H70-G70</f>
         <v>60</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J70" s="16">
         <f t="shared" ref="J70:J133" si="3">K70/I70</f>
         <v>6.13</v>
       </c>
-      <c r="K70" s="9">
+      <c r="K70" s="10">
         <v>367.8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="22">
+    <row r="71" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="23">
         <v>43779</v>
       </c>
-      <c r="B71" s="23">
+      <c r="B71" s="24">
         <v>0.56319444444444444</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="H71" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="I71" s="24" t="s">
+      <c r="I71" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J71" s="25" t="s">
+      <c r="J71" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K71" s="9">
+      <c r="K71" s="10">
         <v>191.44</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22">
+    <row r="72" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="23">
         <v>43789</v>
       </c>
-      <c r="B72" s="23">
+      <c r="B72" s="24">
         <v>0.74930555555555556</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="H72" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="I72" s="24" t="s">
+      <c r="I72" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J72" s="25" t="s">
+      <c r="J72" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="K72" s="9">
+      <c r="K72" s="10">
         <v>110.97</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
-      <c r="I73" s="14">
+    <row r="73" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="23"/>
+      <c r="I73" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J73" s="15" t="e">
+      <c r="J73" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-      <c r="I74" s="14">
+    <row r="74" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="23"/>
+      <c r="I74" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J74" s="15" t="e">
+      <c r="J74" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="22"/>
-      <c r="I75" s="14">
+    <row r="75" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="23"/>
+      <c r="I75" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J75" s="15" t="e">
+      <c r="J75" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="22"/>
-      <c r="I76" s="14">
+    <row r="76" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="23"/>
+      <c r="I76" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J76" s="15" t="e">
+      <c r="J76" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
-      <c r="I77" s="14">
+    <row r="77" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="23"/>
+      <c r="I77" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J77" s="15" t="e">
+      <c r="J77" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
-      <c r="I78" s="14">
+    <row r="78" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="23"/>
+      <c r="I78" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J78" s="15" t="e">
+      <c r="J78" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
-      <c r="I79" s="14">
+    <row r="79" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="23"/>
+      <c r="I79" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J79" s="15" t="e">
+      <c r="J79" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="22"/>
-      <c r="I80" s="14">
+    <row r="80" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="23"/>
+      <c r="I80" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J80" s="15" t="e">
+      <c r="J80" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="22"/>
-      <c r="I81" s="14">
+    <row r="81" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="23"/>
+      <c r="I81" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J81" s="15" t="e">
+      <c r="J81" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="22"/>
-      <c r="I82" s="14">
+    <row r="82" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="23"/>
+      <c r="I82" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J82" s="15" t="e">
+      <c r="J82" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="22"/>
-      <c r="I83" s="14">
+    <row r="83" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="23"/>
+      <c r="I83" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J83" s="15" t="e">
+      <c r="J83" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="22"/>
-      <c r="I84" s="14">
+    <row r="84" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="23"/>
+      <c r="I84" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J84" s="15" t="e">
+      <c r="J84" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="22"/>
-      <c r="I85" s="14">
+    <row r="85" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="23"/>
+      <c r="I85" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J85" s="15" t="e">
+      <c r="J85" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="22"/>
-      <c r="I86" s="14">
+    <row r="86" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="23"/>
+      <c r="I86" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J86" s="15" t="e">
+      <c r="J86" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="22"/>
-      <c r="I87" s="14">
+    <row r="87" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="23"/>
+      <c r="I87" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J87" s="15" t="e">
+      <c r="J87" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="22"/>
-      <c r="I88" s="14">
+    <row r="88" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="23"/>
+      <c r="I88" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J88" s="15" t="e">
+      <c r="J88" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="22"/>
-      <c r="I89" s="14">
+    <row r="89" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="23"/>
+      <c r="I89" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J89" s="15" t="e">
+      <c r="J89" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="22"/>
-      <c r="I90" s="14">
+    <row r="90" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="23"/>
+      <c r="I90" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J90" s="15" t="e">
+      <c r="J90" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="22"/>
-      <c r="I91" s="14">
+    <row r="91" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="23"/>
+      <c r="I91" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J91" s="15" t="e">
+      <c r="J91" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="22"/>
-      <c r="I92" s="14">
+    <row r="92" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="23"/>
+      <c r="I92" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J92" s="15" t="e">
+      <c r="J92" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="22"/>
-      <c r="I93" s="14">
+    <row r="93" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="23"/>
+      <c r="I93" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J93" s="15" t="e">
+      <c r="J93" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="22"/>
-      <c r="I94" s="14">
+    <row r="94" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="23"/>
+      <c r="I94" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J94" s="15" t="e">
+      <c r="J94" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="22"/>
-      <c r="I95" s="14">
+    <row r="95" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="23"/>
+      <c r="I95" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J95" s="15" t="e">
+      <c r="J95" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="22"/>
-      <c r="I96" s="14">
+    <row r="96" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="23"/>
+      <c r="I96" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J96" s="15" t="e">
+      <c r="J96" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="22"/>
-      <c r="I97" s="14">
+    <row r="97" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="23"/>
+      <c r="I97" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J97" s="15" t="e">
+      <c r="J97" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="22"/>
-      <c r="I98" s="14">
+    <row r="98" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="23"/>
+      <c r="I98" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J98" s="15" t="e">
+      <c r="J98" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="22"/>
-      <c r="I99" s="14">
+    <row r="99" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="23"/>
+      <c r="I99" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J99" s="15" t="e">
+      <c r="J99" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="22"/>
-      <c r="I100" s="14">
+    <row r="100" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="23"/>
+      <c r="I100" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J100" s="15" t="e">
+      <c r="J100" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="22"/>
-      <c r="I101" s="14">
+    <row r="101" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="23"/>
+      <c r="I101" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J101" s="15" t="e">
+      <c r="J101" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="22"/>
-      <c r="I102" s="14">
+    <row r="102" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="23"/>
+      <c r="I102" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J102" s="15" t="e">
+      <c r="J102" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="22"/>
-      <c r="I103" s="14">
+    <row r="103" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="23"/>
+      <c r="I103" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J103" s="15" t="e">
+      <c r="J103" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="22"/>
-      <c r="I104" s="14">
+    <row r="104" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="23"/>
+      <c r="I104" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J104" s="15" t="e">
+      <c r="J104" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="22"/>
-      <c r="I105" s="14">
+    <row r="105" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="23"/>
+      <c r="I105" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J105" s="15" t="e">
+      <c r="J105" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="22"/>
-      <c r="I106" s="14">
+    <row r="106" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="23"/>
+      <c r="I106" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J106" s="15" t="e">
+      <c r="J106" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="22"/>
-      <c r="I107" s="14">
+    <row r="107" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="23"/>
+      <c r="I107" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J107" s="15" t="e">
+      <c r="J107" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="22"/>
-      <c r="I108" s="14">
+    <row r="108" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="23"/>
+      <c r="I108" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J108" s="15" t="e">
+      <c r="J108" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="22"/>
-      <c r="I109" s="14">
+    <row r="109" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="23"/>
+      <c r="I109" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J109" s="15" t="e">
+      <c r="J109" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="22"/>
-      <c r="I110" s="14">
+    <row r="110" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="23"/>
+      <c r="I110" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J110" s="15" t="e">
+      <c r="J110" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="22"/>
-      <c r="I111" s="14">
+    <row r="111" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="23"/>
+      <c r="I111" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J111" s="15" t="e">
+      <c r="J111" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="22"/>
-      <c r="I112" s="14">
+    <row r="112" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="23"/>
+      <c r="I112" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J112" s="15" t="e">
+      <c r="J112" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="22"/>
-      <c r="I113" s="14">
+    <row r="113" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="23"/>
+      <c r="I113" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J113" s="15" t="e">
+      <c r="J113" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="22"/>
-      <c r="I114" s="14">
+    <row r="114" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="23"/>
+      <c r="I114" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J114" s="15" t="e">
+      <c r="J114" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="22"/>
-      <c r="I115" s="14">
+    <row r="115" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="23"/>
+      <c r="I115" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J115" s="15" t="e">
+      <c r="J115" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="22"/>
-      <c r="I116" s="14">
+    <row r="116" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="23"/>
+      <c r="I116" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J116" s="15" t="e">
+      <c r="J116" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="22"/>
-      <c r="I117" s="14">
+    <row r="117" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="23"/>
+      <c r="I117" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J117" s="15" t="e">
+      <c r="J117" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="22"/>
-      <c r="I118" s="14">
+    <row r="118" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="23"/>
+      <c r="I118" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J118" s="15" t="e">
+      <c r="J118" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="22"/>
-      <c r="I119" s="14">
+    <row r="119" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="23"/>
+      <c r="I119" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J119" s="15" t="e">
+      <c r="J119" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="22"/>
-      <c r="I120" s="14">
+    <row r="120" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="23"/>
+      <c r="I120" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J120" s="15" t="e">
+      <c r="J120" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="22"/>
-      <c r="I121" s="14">
+    <row r="121" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="23"/>
+      <c r="I121" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J121" s="15" t="e">
+      <c r="J121" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="22"/>
-      <c r="I122" s="14">
+    <row r="122" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="23"/>
+      <c r="I122" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J122" s="15" t="e">
+      <c r="J122" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="22"/>
-      <c r="I123" s="14">
+    <row r="123" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="23"/>
+      <c r="I123" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J123" s="15" t="e">
+      <c r="J123" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="22"/>
-      <c r="I124" s="14">
+    <row r="124" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="23"/>
+      <c r="I124" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J124" s="15" t="e">
+      <c r="J124" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="22"/>
-      <c r="I125" s="14">
+    <row r="125" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="23"/>
+      <c r="I125" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J125" s="15" t="e">
+      <c r="J125" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="22"/>
-      <c r="I126" s="14">
+    <row r="126" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="23"/>
+      <c r="I126" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J126" s="15" t="e">
+      <c r="J126" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="22"/>
-      <c r="I127" s="14">
+    <row r="127" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="23"/>
+      <c r="I127" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J127" s="15" t="e">
+      <c r="J127" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="22"/>
-      <c r="I128" s="14">
+    <row r="128" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="23"/>
+      <c r="I128" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J128" s="15" t="e">
+      <c r="J128" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="22"/>
-      <c r="I129" s="14">
+    <row r="129" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="23"/>
+      <c r="I129" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J129" s="15" t="e">
+      <c r="J129" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="22"/>
-      <c r="I130" s="14">
+    <row r="130" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="23"/>
+      <c r="I130" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J130" s="15" t="e">
+      <c r="J130" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="22"/>
-      <c r="I131" s="14">
+    <row r="131" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="23"/>
+      <c r="I131" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J131" s="15" t="e">
+      <c r="J131" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="22"/>
-      <c r="I132" s="14">
+    <row r="132" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="23"/>
+      <c r="I132" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J132" s="15" t="e">
+      <c r="J132" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="22"/>
-      <c r="I133" s="14">
+    <row r="133" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="23"/>
+      <c r="I133" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J133" s="15" t="e">
+      <c r="J133" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="22"/>
-      <c r="I134" s="14">
+    <row r="134" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="23"/>
+      <c r="I134" s="15">
         <f t="shared" ref="I134:I186" si="4">H134-G134</f>
         <v>0</v>
       </c>
-      <c r="J134" s="15" t="e">
+      <c r="J134" s="16" t="e">
         <f t="shared" ref="J134:J186" si="5">K134/I134</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="22"/>
-      <c r="I135" s="14">
+    <row r="135" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="23"/>
+      <c r="I135" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J135" s="15" t="e">
+      <c r="J135" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="136" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="22"/>
-      <c r="I136" s="14">
+    <row r="136" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="23"/>
+      <c r="I136" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J136" s="15" t="e">
+      <c r="J136" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="137" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="22"/>
-      <c r="I137" s="14">
+    <row r="137" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="23"/>
+      <c r="I137" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J137" s="15" t="e">
+      <c r="J137" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="22"/>
-      <c r="I138" s="14">
+    <row r="138" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="23"/>
+      <c r="I138" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J138" s="15" t="e">
+      <c r="J138" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="139" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="22"/>
-      <c r="I139" s="14">
+    <row r="139" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="23"/>
+      <c r="I139" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J139" s="15" t="e">
+      <c r="J139" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="22"/>
-      <c r="I140" s="14">
+    <row r="140" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="23"/>
+      <c r="I140" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J140" s="15" t="e">
+      <c r="J140" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="22"/>
-      <c r="I141" s="14">
+    <row r="141" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="23"/>
+      <c r="I141" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J141" s="15" t="e">
+      <c r="J141" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="22"/>
-      <c r="I142" s="14">
+    <row r="142" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="23"/>
+      <c r="I142" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J142" s="15" t="e">
+      <c r="J142" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="22"/>
-      <c r="I143" s="14">
+    <row r="143" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="23"/>
+      <c r="I143" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J143" s="15" t="e">
+      <c r="J143" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="22"/>
-      <c r="I144" s="14">
+    <row r="144" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="23"/>
+      <c r="I144" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J144" s="15" t="e">
+      <c r="J144" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="145" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="22"/>
-      <c r="I145" s="14">
+    <row r="145" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="23"/>
+      <c r="I145" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J145" s="15" t="e">
+      <c r="J145" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="22"/>
-      <c r="I146" s="14">
+    <row r="146" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="23"/>
+      <c r="I146" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J146" s="15" t="e">
+      <c r="J146" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="147" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="22"/>
-      <c r="I147" s="14">
+    <row r="147" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="23"/>
+      <c r="I147" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J147" s="15" t="e">
+      <c r="J147" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="148" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="22"/>
-      <c r="I148" s="14">
+    <row r="148" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="23"/>
+      <c r="I148" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J148" s="15" t="e">
+      <c r="J148" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="149" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="22"/>
-      <c r="I149" s="14">
+    <row r="149" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="23"/>
+      <c r="I149" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J149" s="15" t="e">
+      <c r="J149" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="150" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="22"/>
-      <c r="I150" s="14">
+    <row r="150" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="23"/>
+      <c r="I150" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J150" s="15" t="e">
+      <c r="J150" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="151" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="22"/>
-      <c r="I151" s="14">
+    <row r="151" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="23"/>
+      <c r="I151" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J151" s="15" t="e">
+      <c r="J151" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="152" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="22"/>
-      <c r="I152" s="14">
+    <row r="152" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="23"/>
+      <c r="I152" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J152" s="15" t="e">
+      <c r="J152" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="153" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="22"/>
-      <c r="I153" s="14">
+    <row r="153" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="23"/>
+      <c r="I153" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J153" s="15" t="e">
+      <c r="J153" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="154" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="22"/>
-      <c r="I154" s="14">
+    <row r="154" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="23"/>
+      <c r="I154" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J154" s="15" t="e">
+      <c r="J154" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="22"/>
-      <c r="I155" s="14">
+    <row r="155" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="23"/>
+      <c r="I155" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J155" s="15" t="e">
+      <c r="J155" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="156" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="22"/>
-      <c r="I156" s="14">
+    <row r="156" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="23"/>
+      <c r="I156" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J156" s="15" t="e">
+      <c r="J156" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="157" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="22"/>
-      <c r="I157" s="14">
+    <row r="157" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="23"/>
+      <c r="I157" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J157" s="15" t="e">
+      <c r="J157" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="158" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="22"/>
-      <c r="I158" s="14">
+    <row r="158" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="23"/>
+      <c r="I158" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J158" s="15" t="e">
+      <c r="J158" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="22"/>
-      <c r="I159" s="14">
+    <row r="159" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="23"/>
+      <c r="I159" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J159" s="15" t="e">
+      <c r="J159" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="22"/>
-      <c r="I160" s="14">
+    <row r="160" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="23"/>
+      <c r="I160" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J160" s="15" t="e">
+      <c r="J160" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="22"/>
-      <c r="I161" s="14">
+    <row r="161" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="23"/>
+      <c r="I161" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J161" s="15" t="e">
+      <c r="J161" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="162" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="22"/>
-      <c r="I162" s="14">
+    <row r="162" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="23"/>
+      <c r="I162" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J162" s="15" t="e">
+      <c r="J162" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="163" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="22"/>
-      <c r="I163" s="14">
+    <row r="163" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="23"/>
+      <c r="I163" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J163" s="15" t="e">
+      <c r="J163" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="164" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="22"/>
-      <c r="I164" s="14">
+    <row r="164" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="23"/>
+      <c r="I164" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J164" s="15" t="e">
+      <c r="J164" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="165" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="22"/>
-      <c r="I165" s="14">
+    <row r="165" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="23"/>
+      <c r="I165" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J165" s="15" t="e">
+      <c r="J165" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="166" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="22"/>
-      <c r="I166" s="14">
+    <row r="166" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="23"/>
+      <c r="I166" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J166" s="15" t="e">
+      <c r="J166" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="167" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="22"/>
-      <c r="I167" s="14">
+    <row r="167" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="23"/>
+      <c r="I167" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J167" s="15" t="e">
+      <c r="J167" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="168" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="22"/>
-      <c r="I168" s="14">
+    <row r="168" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="23"/>
+      <c r="I168" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J168" s="15" t="e">
+      <c r="J168" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="22"/>
-      <c r="I169" s="14">
+    <row r="169" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="23"/>
+      <c r="I169" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J169" s="15" t="e">
+      <c r="J169" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="170" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="22"/>
-      <c r="I170" s="14">
+    <row r="170" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="23"/>
+      <c r="I170" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J170" s="15" t="e">
+      <c r="J170" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="171" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="22"/>
-      <c r="I171" s="14">
+    <row r="171" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="23"/>
+      <c r="I171" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J171" s="15" t="e">
+      <c r="J171" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="172" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="22"/>
-      <c r="I172" s="14">
+    <row r="172" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="23"/>
+      <c r="I172" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J172" s="15" t="e">
+      <c r="J172" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="173" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="22"/>
-      <c r="I173" s="14">
+    <row r="173" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="23"/>
+      <c r="I173" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J173" s="15" t="e">
+      <c r="J173" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="174" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="22"/>
-      <c r="I174" s="14">
+    <row r="174" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="23"/>
+      <c r="I174" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J174" s="15" t="e">
+      <c r="J174" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="175" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="22"/>
-      <c r="I175" s="14">
+    <row r="175" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="23"/>
+      <c r="I175" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J175" s="15" t="e">
+      <c r="J175" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I176" s="14">
+    <row r="176" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I176" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J176" s="15" t="e">
+      <c r="J176" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="177" spans="9:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I177" s="14">
+    <row r="177" spans="9:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I177" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J177" s="15" t="e">
+      <c r="J177" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="178" spans="9:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I178" s="14">
+    <row r="178" spans="9:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I178" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J178" s="15" t="e">
+      <c r="J178" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="179" spans="9:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I179" s="14">
+    <row r="179" spans="9:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I179" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J179" s="15" t="e">
+      <c r="J179" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="180" spans="9:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I180" s="14">
+    <row r="180" spans="9:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I180" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J180" s="15" t="e">
+      <c r="J180" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="181" spans="9:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I181" s="14">
+    <row r="181" spans="9:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I181" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J181" s="15" t="e">
+      <c r="J181" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="182" spans="9:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I182" s="14">
+    <row r="182" spans="9:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I182" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J182" s="15" t="e">
+      <c r="J182" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="183" spans="9:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I183" s="14">
+    <row r="183" spans="9:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I183" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J183" s="15" t="e">
+      <c r="J183" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="184" spans="9:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I184" s="14">
+    <row r="184" spans="9:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I184" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J184" s="15" t="e">
+      <c r="J184" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="185" spans="9:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I185" s="14">
+    <row r="185" spans="9:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I185" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J185" s="15" t="e">
+      <c r="J185" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="186" spans="9:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I186" s="14">
+    <row r="186" spans="9:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I186" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J186" s="15" t="e">
+      <c r="J186" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -13906,10 +13962,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H32" sqref="H29:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13919,8 +13975,11 @@
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
-    <col min="8" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" customWidth="1"/>
+    <col min="8" max="8" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="27.42578125" bestFit="1" customWidth="1"/>
@@ -13929,240 +13988,301 @@
     <col min="40" max="40" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
+      <c r="C2" s="35">
+        <f>MAX(C$3:C$65536)</f>
+        <v>7940</v>
+      </c>
+      <c r="D2" s="37">
+        <f>VLOOKUP($B$2,$H$4:$I$10,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="36">
+        <f>C2-D2</f>
+        <v>7940</v>
+      </c>
+      <c r="F2" s="38" t="str">
+        <f>IF(E2&gt;=0,"",E2*-1*IF(VLOOKUP($B$2,H4:J10,3,0)=0,AVERAGE(E$3:E$65536),VLOOKUP($B$2,H4:J10,3,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="33" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="H4" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>240</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>242</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>245</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>244</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="H5" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B6" s="32">
         <v>4005</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C6" s="32">
         <v>4075</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D6" s="32">
         <v>70</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E6" s="34">
         <v>5.8684285714285718</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F6" s="31">
         <v>410.79</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="H6" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B7" s="32">
         <v>4075</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C7" s="32">
         <v>4150</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D7" s="32">
         <v>75</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E7" s="34">
         <v>5.005066666666667</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F7" s="31">
         <v>375.38</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="H7" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>223</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B8" s="32">
         <v>4150</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C8" s="32">
         <v>4200</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D8" s="32">
         <v>50</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E8" s="34">
         <v>4.3260000000000005</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F8" s="31">
         <v>216.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="H8" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>225</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B9" s="32">
         <v>4200</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C9" s="32">
         <v>4321</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D9" s="32">
         <v>121</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E9" s="34">
         <v>3.712314049586777</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F9" s="31">
         <v>449.19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="H9" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>230</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B10" s="32">
         <v>4321</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C10" s="32">
         <v>4364</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D10" s="32">
         <v>43</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E10" s="34">
         <v>2.9481395348837207</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F10" s="31">
         <v>126.77</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="H10" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B11" s="32">
         <v>4364</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C11" s="32">
         <v>4453</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D11" s="32">
         <v>89</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E11" s="34">
         <v>2.7865168539325844</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F11" s="31">
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>235</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B12" s="32">
         <v>4453</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C12" s="32">
         <v>4501</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D12" s="32">
         <v>48</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E12" s="34">
         <v>5.45</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F12" s="31">
         <v>261.60000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B13" s="32">
         <v>3809</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C13" s="32">
         <v>3869</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D13" s="32">
         <v>60</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E13" s="34">
         <v>6.13</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F13" s="31">
         <v>367.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B14" s="32">
         <v>7804</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C14" s="32">
         <v>7940</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D14" s="32">
         <v>136</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E14" s="34">
         <v>13.035160173160174</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F14" s="31">
         <v>884.86</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" s="31">
-        <v>41181</v>
-      </c>
-      <c r="C14" s="31">
-        <v>41873</v>
-      </c>
-      <c r="D14" s="31">
-        <v>692</v>
-      </c>
-      <c r="E14" s="33">
-        <v>49.261625849658493</v>
-      </c>
-      <c r="F14" s="30">
-        <v>3340.6900000000005</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
@@ -14191,7 +14311,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>191</v>
       </c>
       <c r="B1" t="s">
@@ -14199,12 +14319,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>190</v>
       </c>
       <c r="B4" t="s">
@@ -14227,19 +14347,19 @@
       <c r="A5" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="32">
         <v>4005</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="32">
         <v>4075</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="31">
         <v>70</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="31">
         <v>5.8684285714285718</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="31">
         <v>410.79</v>
       </c>
     </row>
@@ -14247,19 +14367,19 @@
       <c r="A6" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="32">
         <v>0</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="32">
         <v>0</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="31">
         <v>0</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="31">
         <v>0</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="31">
         <v>292.44</v>
       </c>
     </row>
@@ -14267,19 +14387,19 @@
       <c r="A7" t="s">
         <v>212</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="32">
         <v>35914</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="32">
         <v>36035</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="31">
         <v>121</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="31">
         <v>2.58</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="31">
         <v>125.28</v>
       </c>
     </row>
@@ -14287,19 +14407,19 @@
       <c r="A8" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="32">
         <v>0</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="32">
         <v>0</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="31">
         <v>0</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="31">
         <v>0</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="31">
         <v>1538.84</v>
       </c>
     </row>
@@ -14307,19 +14427,19 @@
       <c r="A9" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="32">
         <v>993</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="32">
         <v>1016</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="31">
         <v>23</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="31">
         <v>22.967826086956521</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="31">
         <v>528.26</v>
       </c>
     </row>
@@ -14327,19 +14447,19 @@
       <c r="A10" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="32">
         <v>40912</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="32">
         <v>41126</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="31">
         <v>214</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="31">
         <v>31.416254658385093</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="31">
         <v>2895.6099999999997</v>
       </c>
     </row>
